--- a/bacen/lake/teste.xlsx
+++ b/bacen/lake/teste.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">update</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-05 19:53:43</t>
+    <t xml:space="preserve">2025-03-05 20:26:32</t>
   </si>
 </sst>
 </file>

--- a/bacen/lake/teste.xlsx
+++ b/bacen/lake/teste.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -20,13 +20,10 @@
     <t xml:space="preserve">28183</t>
   </si>
   <si>
-    <t xml:space="preserve">28184</t>
-  </si>
-  <si>
     <t xml:space="preserve">update</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-05 20:26:32</t>
+    <t xml:space="preserve">2025-03-05 21:38:42</t>
   </si>
 </sst>
 </file>
@@ -372,8 +369,7 @@
   <cols>
     <col min="1" max="1" width="4.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="5.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="19.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -386,16 +382,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2"/>
       <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/bacen/lake/teste.xlsx
+++ b/bacen/lake/teste.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">update</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-05 21:38:42</t>
+    <t xml:space="preserve">2025-03-06 04:33:55</t>
   </si>
 </sst>
 </file>

--- a/bacen/lake/teste.xlsx
+++ b/bacen/lake/teste.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">update</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-06 04:33:55</t>
+    <t xml:space="preserve">2025-03-06 04:44:50</t>
   </si>
 </sst>
 </file>

--- a/bacen/lake/teste.xlsx
+++ b/bacen/lake/teste.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">update</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-06 04:44:50</t>
+    <t xml:space="preserve">2025-03-06 12:27:22</t>
   </si>
 </sst>
 </file>
